--- a/SF_Working_Plan22_Plan.xlsx
+++ b/SF_Working_Plan22_Plan.xlsx
@@ -1,17 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90312EDC-BA33-4273-818B-1C1DA33F47E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="My Sheet" state="visible" r:id="rId4"/>
+    <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -37,61 +52,64 @@
     <t>Office Days Count</t>
   </si>
   <si>
-    <t>GOKHAN BINGOL</t>
+    <t>error</t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t>ONUR ERDEN</t>
   </si>
   <si>
     <t>NW</t>
   </si>
   <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>UYGAR ZUBARI</t>
+  </si>
+  <si>
+    <t>Normal Working(Company)</t>
+  </si>
+  <si>
+    <t>OZGUR SELMANOGLU</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Annual Leave</t>
+  </si>
+  <si>
+    <t>MENGUÇ HALIL</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Health Report</t>
+  </si>
+  <si>
+    <t>ILKNUR KURBAN</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>Unpaid Leave</t>
+  </si>
+  <si>
+    <t>VOLKAN BALIKCI</t>
+  </si>
+  <si>
+    <t>Smart Working</t>
+  </si>
+  <si>
+    <t>TAHA ERKAN</t>
+  </si>
+  <si>
     <t>PH</t>
-  </si>
-  <si>
-    <t>ONUR ERDEN</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>UYGAR ZUBARI</t>
-  </si>
-  <si>
-    <t>Normal Working(Company)</t>
-  </si>
-  <si>
-    <t>OZGUR SELMANOGLU</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Annual Leave</t>
-  </si>
-  <si>
-    <t>MENGUÇ HALIL</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Health Report</t>
-  </si>
-  <si>
-    <t>ILKNUR KURBAN</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>Unpaid Leave</t>
-  </si>
-  <si>
-    <t>VOLKAN BALIKCI</t>
-  </si>
-  <si>
-    <t>Smart Working</t>
-  </si>
-  <si>
-    <t>TAHA ERKAN</t>
   </si>
   <si>
     <t>Public Holiday</t>
@@ -136,14 +154,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="11">
@@ -155,47 +173,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F0F0FF"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDD00"/>
+        <fgColor rgb="FFF0F0FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
+        <fgColor rgb="FFFFF0F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0"/>
+        <fgColor rgb="FFFFFF66"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF66"/>
+        <fgColor rgb="FF33CC33"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="33cc33"/>
+        <fgColor rgb="FF6666FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="6666FF"/>
+        <fgColor rgb="FFFFDD00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEECC"/>
+        <fgColor rgb="FFFFEECC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCF00"/>
+        <fgColor rgb="FFFFCF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -208,10 +226,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -567,11 +593,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="26.5546875" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,561 +634,586 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20001</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3">
-        <f>=COUNTIF(C2:G2,"NW")</f>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H20" si="0">COUNTIF(C2:G2,"NW")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20015</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3">
-        <f>=COUNTIF(C3:G3,"NW")</f>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20016</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3">
-        <f>=COUNTIF(C4:G4,"NW")</f>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20017</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3">
-        <f>=COUNTIF(C5:G5,"NW")</f>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20018</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3">
-        <f>=COUNTIF(C6:G6,"NW")</f>
-      </c>
-      <c r="K6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20019</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
-        <f>=COUNTIF(C7:G7,"NW")</f>
-      </c>
-      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20020</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
-        <f>=COUNTIF(C8:G8,"NW")</f>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20021</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3">
-        <f>=COUNTIF(C9:G9,"NW")</f>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20022</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
-        <f>=COUNTIF(C10:G10,"NW")</f>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20023</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3">
-        <f>=COUNTIF(C11:G11,"NW")</f>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20024</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3">
-        <f>=COUNTIF(C12:G12,"NW")</f>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20027</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="3">
-        <f>=COUNTIF(C13:G13,"NW")</f>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20029</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3">
-        <f>=COUNTIF(C14:G14,"NW")</f>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20030</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="3">
-        <f>=COUNTIF(C15:G15,"NW")</f>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20031</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="3">
-        <f>=COUNTIF(C16:G16,"NW")</f>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20035</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="3">
-        <f>=COUNTIF(C17:G17,"NW")</f>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20047</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="3">
-        <f>=COUNTIF(C18:G18,"NW")</f>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20062</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="3">
-        <f>=COUNTIF(C19:G19,"NW")</f>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16000287</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="3">
-        <f>=COUNTIF(C20:G20,"NW")</f>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="8">
-        <f>=COUNTIF(C2:C20,"NW")</f>
+        <f>COUNTIF(C2:C20,"NW")</f>
+        <v>12</v>
       </c>
       <c r="D21" s="8">
-        <f>=COUNTIF(D2:D20,"NW")</f>
+        <f>COUNTIF(D2:D20,"NW")</f>
+        <v>0</v>
       </c>
       <c r="E21" s="8">
-        <f>=COUNTIF(E2:E20,"NW")</f>
+        <f>COUNTIF(E2:E20,"NW")</f>
+        <v>0</v>
       </c>
       <c r="F21" s="8">
-        <f>=COUNTIF(F2:F20,"NW")</f>
+        <f>COUNTIF(F2:F20,"NW")</f>
+        <v>12</v>
       </c>
       <c r="G21" s="8">
-        <f>=COUNTIF(G2:G20,"NW")</f>
+        <f>COUNTIF(G2:G20,"NW")</f>
+        <v>12</v>
       </c>
       <c r="H21" s="9">
-        <f>=SUM(C21:G21)</f>
+        <f>SUM(C21:G21)</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/SF_Working_Plan22_Plan.xlsx
+++ b/SF_Working_Plan22_Plan.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -37,100 +37,97 @@
     <t>Office Days Count</t>
   </si>
   <si>
+    <t>GOKHAN BINGOL</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>ONUR ERDEN</t>
+  </si>
+  <si>
+    <t>UYGAR ZUBARI</t>
+  </si>
+  <si>
+    <t>Normal Working(Company)</t>
+  </si>
+  <si>
+    <t>OZGUR SELMANOGLU</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Annual Leave</t>
+  </si>
+  <si>
+    <t>MENGUÇ HALIL</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Health Report</t>
+  </si>
+  <si>
     <t>ILKNUR KURBAN</t>
   </si>
   <si>
-    <t>NW</t>
-  </si>
-  <si>
-    <t>SW</t>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>Unpaid Leave</t>
+  </si>
+  <si>
+    <t>VOLKAN BALIKCI</t>
+  </si>
+  <si>
+    <t>Smart Working</t>
+  </si>
+  <si>
+    <t>TAHA ERKAN</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Public Holiday</t>
+  </si>
+  <si>
+    <t>OZGU TURKMEN</t>
+  </si>
+  <si>
+    <t>ENDER YURDAKOC</t>
+  </si>
+  <si>
+    <t>NILDEN TUTALAR</t>
   </si>
   <si>
     <t>UGUR CAN</t>
   </si>
   <si>
+    <t>ZAFER GULER</t>
+  </si>
+  <si>
+    <t>CAN UGURLU</t>
+  </si>
+  <si>
+    <t>ALI EMRE OK</t>
+  </si>
+  <si>
     <t>GURKAN GUNEY</t>
   </si>
   <si>
-    <t>Normal Working(Company)</t>
-  </si>
-  <si>
-    <t>CAN UGURLU</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Annual Leave</t>
-  </si>
-  <si>
-    <t>ALI EMRE OK</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Health Report</t>
-  </si>
-  <si>
-    <t>MENGUÇ HALIL</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>Unpaid Leave</t>
-  </si>
-  <si>
-    <t>OZGUR SELMANOGLU</t>
-  </si>
-  <si>
-    <t>Smart Working</t>
-  </si>
-  <si>
-    <t>OZGU TURKMEN</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>Public Holiday</t>
+    <t>OZGUR SALGINCI</t>
   </si>
   <si>
     <t>GAMZE AKYOL</t>
   </si>
   <si>
-    <t>ZAFER GULER</t>
-  </si>
-  <si>
-    <t>OZGUR SALGINCI</t>
-  </si>
-  <si>
-    <t>NILDEN TUTALAR</t>
-  </si>
-  <si>
     <t>EGE KUTAY YURUSEN</t>
-  </si>
-  <si>
-    <t>UYGAR ZUBARI</t>
-  </si>
-  <si>
-    <t>ONUR ERDEN</t>
-  </si>
-  <si>
-    <t>GOKHAN BINGOL</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>TAHA ERKAN</t>
-  </si>
-  <si>
-    <t>VOLKAN BALIKCI</t>
-  </si>
-  <si>
-    <t>ENDER YURDAKOC</t>
   </si>
   <si>
     <t>Normal Working Count:</t>
@@ -149,7 +146,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,11 +195,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEECC"/>
       </patternFill>
     </fill>
@@ -226,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -237,7 +229,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +599,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20019</v>
+        <v>20001</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -625,8 +616,8 @@
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H2" s="3">
         <f>=COUNTIF(C2:G2,"NW")</f>
@@ -634,7 +625,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20027</v>
+        <v>20015</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -648,11 +639,11 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H3" s="3">
         <f>=COUNTIF(C3:G3,"NW")</f>
@@ -660,7 +651,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20035</v>
+        <v>20016</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -692,7 +683,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20030</v>
+        <v>20017</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -706,8 +697,8 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -724,13 +715,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20031</v>
+        <v>20018</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -741,8 +732,8 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H6" s="3">
         <f>=COUNTIF(C6:G6,"NW")</f>
@@ -756,7 +747,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20018</v>
+        <v>20019</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -770,8 +761,8 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
@@ -788,7 +779,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20017</v>
+        <v>20020</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -805,8 +796,8 @@
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H8" s="3">
         <f>=COUNTIF(C8:G8,"NW")</f>
@@ -820,7 +811,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20022</v>
+        <v>20021</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -837,8 +828,8 @@
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H9" s="3">
         <f>=COUNTIF(C9:G9,"NW")</f>
@@ -852,13 +843,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20062</v>
+        <v>20022</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -878,13 +869,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20029</v>
+        <v>20023</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -892,11 +883,11 @@
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H11" s="3">
         <f>=COUNTIF(C11:G11,"NW")</f>
@@ -904,7 +895,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20047</v>
+        <v>20024</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -921,8 +912,8 @@
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H12" s="3">
         <f>=COUNTIF(C12:G12,"NW")</f>
@@ -930,13 +921,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20024</v>
+        <v>20027</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -944,8 +935,8 @@
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -956,13 +947,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>16000287</v>
+        <v>20029</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -982,13 +973,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20016</v>
+        <v>20030</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
@@ -996,8 +987,8 @@
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
@@ -1008,7 +999,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20015</v>
+        <v>20031</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -1022,8 +1013,8 @@
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>9</v>
@@ -1034,25 +1025,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20001</v>
+        <v>20035</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H17" s="3">
         <f>=COUNTIF(C17:G17,"NW")</f>
@@ -1060,10 +1051,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20021</v>
+        <v>20047</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1074,8 +1065,8 @@
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -1086,10 +1077,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20020</v>
+        <v>20062</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1100,8 +1091,8 @@
       <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
@@ -1112,10 +1103,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20023</v>
+        <v>16000287</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -1126,8 +1117,8 @@
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
@@ -1138,21 +1129,21 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="10">
+        <v>39</v>
+      </c>
+      <c r="C21" s="9">
         <f>=COUNTIF(C2:C20,"NW")</f>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <f>=COUNTIF(D2:D20,"NW")</f>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <f>=COUNTIF(E2:E20,"NW")</f>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <f>=COUNTIF(F2:F20,"NW")</f>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <f>=COUNTIF(G2:G20,"NW")</f>
       </c>
       <c r="H21" s="4">

--- a/SF_Working_Plan22_Plan.xlsx
+++ b/SF_Working_Plan22_Plan.xlsx
@@ -613,8 +613,8 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -700,8 +700,8 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H5" s="3">
         <f>=COUNTIF(C5:G5,"NW")</f>
@@ -793,8 +793,8 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -816,8 +816,8 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -828,8 +828,8 @@
       <c r="F9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H9" s="3">
         <f>=COUNTIF(C9:G9,"NW")</f>
@@ -848,8 +848,8 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
@@ -860,8 +860,8 @@
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H10" s="3">
         <f>=COUNTIF(C10:G10,"NW")</f>
@@ -874,8 +874,8 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -883,8 +883,8 @@
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -926,8 +926,8 @@
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -935,8 +935,8 @@
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -961,11 +961,11 @@
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H14" s="3">
         <f>=COUNTIF(C14:G14,"NW")</f>
@@ -987,11 +987,11 @@
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H15" s="3">
         <f>=COUNTIF(C15:G15,"NW")</f>
@@ -1004,8 +1004,8 @@
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
@@ -1013,8 +1013,8 @@
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>9</v>
@@ -1117,11 +1117,11 @@
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H20" s="3">
         <f>=COUNTIF(C20:G20,"NW")</f>

--- a/SF_Working_Plan22_Plan.xlsx
+++ b/SF_Working_Plan22_Plan.xlsx
@@ -784,8 +784,8 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -978,8 +978,8 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
@@ -990,8 +990,8 @@
       <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H15" s="3">
         <f>=COUNTIF(C15:G15,"NW")</f>
@@ -1004,8 +1004,8 @@
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
@@ -1016,8 +1016,8 @@
       <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H16" s="3">
         <f>=COUNTIF(C16:G16,"NW")</f>
@@ -1091,11 +1091,11 @@
       <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>10</v>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H19" s="3">
         <f>=COUNTIF(C19:G19,"NW")</f>
@@ -1117,11 +1117,11 @@
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>9</v>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H20" s="3">
         <f>=COUNTIF(C20:G20,"NW")</f>
